--- a/Palo Alto Networks DCF 10-26-22.xlsx
+++ b/Palo Alto Networks DCF 10-26-22.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bina/Documents/financial-modeling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50055A95-AF67-D74E-94A0-1EE3728B3E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEDB2894-083E-7847-B634-8C239A1F374F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="23420" windowHeight="26980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="136">
   <si>
     <t>INCOME STATEMENT (in mln.)</t>
   </si>
@@ -438,6 +438,9 @@
   </si>
   <si>
     <t>Upside / Downside</t>
+  </si>
+  <si>
+    <t>Present Value of Future Cash Flows</t>
   </si>
 </sst>
 </file>
@@ -1090,7 +1093,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="N64" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="R103" sqref="R103"/>
+      <selection pane="bottomRight" activeCell="A105" sqref="A105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6127,6 +6130,9 @@
       <c r="AF100" s="20"/>
     </row>
     <row r="101" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+      <c r="A101" s="5" t="s">
+        <v>135</v>
+      </c>
       <c r="P101" s="1">
         <f>P99/(1+$T$55)^P98</f>
         <v>2113319004.2621899</v>
@@ -6140,6 +6146,9 @@
         <v>42350948988.726181</v>
       </c>
     </row>
+    <row r="102" spans="1:32" ht="19" x14ac:dyDescent="0.25">
+      <c r="A102" s="5"/>
+    </row>
     <row r="103" spans="1:32" x14ac:dyDescent="0.2">
       <c r="O103" s="48" t="s">
         <v>126</v>
@@ -6205,7 +6214,7 @@
       <c r="O110" s="53"/>
       <c r="P110" s="54"/>
     </row>
-    <row r="111" spans="1:32" ht="34" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="O111" s="55" t="s">
         <v>133</v>
       </c>
@@ -6214,7 +6223,7 @@
         <v>SELL</v>
       </c>
     </row>
-    <row r="112" spans="1:32" ht="34" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:32" ht="17" x14ac:dyDescent="0.2">
       <c r="O112" s="55" t="s">
         <v>134</v>
       </c>
